--- a/coffee_analysis.xlsx
+++ b/coffee_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\data analytics\maven_analytics\guided_projects\Coffee+Shop+Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D701B8-E686-40DE-9CBC-A3AAE81F4736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68800BBB-541B-4B26-8A5B-F397924EA8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,11 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
-    <pivotCache cacheId="11" r:id="rId4"/>
-    <pivotCache cacheId="14" r:id="rId5"/>
-    <pivotCache cacheId="17" r:id="rId6"/>
-    <pivotCache cacheId="20" r:id="rId7"/>
+    <pivotCache cacheId="143" r:id="rId3"/>
+    <pivotCache cacheId="146" r:id="rId4"/>
+    <pivotCache cacheId="149" r:id="rId5"/>
+    <pivotCache cacheId="152" r:id="rId6"/>
+    <pivotCache cacheId="155" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
@@ -331,9 +331,6 @@
       <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
@@ -344,6 +341,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
@@ -540,12 +540,12 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF926F00"/>
+      <color rgb="FF333300"/>
+      <color rgb="FF161616"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FF5B9BD5"/>
-      <color rgb="FF926F00"/>
-      <color rgb="FF161616"/>
       <color rgb="FFFFE699"/>
-      <color rgb="FF333300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4074,16 +4074,308 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350385</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle: Rounded Corners 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5363830D-7B02-9A25-D93B-B1CA90929C71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7756073" y="261937"/>
+          <a:ext cx="6078989" cy="1262062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="161616"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="926F00">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90165B6B-3E4B-71B6-F52A-34E9C5A03006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6398760" y="5905498"/>
+          <a:ext cx="7674427" cy="3929063"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="161616"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="38100" dist="38100" dir="19500000">
+            <a:srgbClr val="926F00">
+              <a:alpha val="42000"/>
+            </a:srgbClr>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>129269</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:colOff>346982</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0FF9DF9-6C55-ECBC-AE3A-3B73513952AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="129269" y="2146526"/>
+          <a:ext cx="7623401" cy="3116035"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="161616"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="38100" dist="38100" dir="19500000">
+            <a:srgbClr val="926F00">
+              <a:alpha val="42000"/>
+            </a:srgbClr>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>411616</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466045</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>187098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C0E67D-D1F1-9716-840A-42CE7855649B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8436429" y="2146526"/>
+          <a:ext cx="5626554" cy="3374572"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="161616"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="38100" dist="38100" dir="19500000">
+            <a:srgbClr val="926F00">
+              <a:alpha val="42000"/>
+            </a:srgbClr>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4112,16 +4404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>140154</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>479652</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>25854</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>331173</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4150,16 +4442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205910</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>184896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>373997</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>184897</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4188,19 +4480,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>32494</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>18490</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605517</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78241</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Store Location">
@@ -4223,7 +4515,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4233,8 +4525,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8645815" y="399490"/>
-              <a:ext cx="4224141" cy="922804"/>
+              <a:off x="8102435" y="435429"/>
+              <a:ext cx="5318537" cy="976312"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4291,7 +4583,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="220042" y="141613"/>
-          <a:ext cx="1075836" cy="917511"/>
+          <a:ext cx="1069651" cy="917511"/>
           <a:chOff x="13317682" y="4156364"/>
           <a:chExt cx="1476210" cy="1266354"/>
         </a:xfrm>
@@ -4537,13 +4829,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>404211</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>79242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1700893</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4616,7 +4908,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="DELL" refreshedDate="45456.227105555554" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2B4AF649-F731-46C1-AAFA-98B6876D99A3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="DELL" refreshedDate="45457.119861574072" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2B4AF649-F731-46C1-AAFA-98B6876D99A3}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[Transactions].[month].[month]" caption="month" numFmtId="0" hierarchy="13" level="1">
@@ -4707,7 +4999,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="DELL" refreshedDate="45456.227108449071" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{12FA1115-35D7-441A-8C6D-C08F42B8AE52}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="DELL" refreshedDate="45457.119862268519" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{12FA1115-35D7-441A-8C6D-C08F42B8AE52}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="4">
     <cacheField name="[Transactions].[product_type].[product_type]" caption="product_type" numFmtId="0" hierarchy="11" level="1">
@@ -4811,7 +5103,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="DELL" refreshedDate="45456.227111342596" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D3984199-467E-4071-BE1F-7F51E7BE5ACB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="DELL" refreshedDate="45457.119862962965" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D3984199-467E-4071-BE1F-7F51E7BE5ACB}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[Transactions].[day of  week].[day of  week]" caption="day of  week" numFmtId="0" hierarchy="14" level="1">
@@ -4903,7 +5195,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="DELL" refreshedDate="45456.227114699075" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7B6E82E5-6851-40FA-BBFA-17F81CF29D50}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="DELL" refreshedDate="45457.119863541666" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7B6E82E5-6851-40FA-BBFA-17F81CF29D50}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[Transactions].[Hour].[Hour]" caption="Hour" numFmtId="0" hierarchy="3" level="1">
@@ -5024,7 +5316,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="DELL" refreshedDate="45456.227117129631" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B6C1B357-6F3B-407A-8642-7CC6E5CD6765}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="DELL" refreshedDate="45457.119864004628" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B6C1B357-6F3B-407A-8642-7CC6E5CD6765}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[Transactions].[product_category].[product_category]" caption="product_category" numFmtId="0" hierarchy="10" level="1">
@@ -5177,7 +5469,379 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5349C62B-9039-4F57-A967-AA58C8FAE122}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Hour">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CFEDE68C-40A5-44DF-B5B8-34625EDEC00C}" name="PivotTable2" cacheId="149" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Day of Week">
+  <location ref="F5:G13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Number of Transaction" fld="1" subtotal="count" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="20">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Number of Transaction"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="14"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Transactions]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04900307-3CF3-4DB7-A52F-8A9C99C8FFAC}" name="PivotTable1" cacheId="143" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Month">
+  <location ref="C5:D12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Revenue" fld="1" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="5">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="9" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="20">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Revenue"/>
+    <pivotHierarchy dragToData="1" caption="Revenue"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Transactions]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16E8F49F-17D8-4F22-A65E-70481D26D53A}" name="PivotTable4" cacheId="155" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Category">
+  <location ref="A15:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Number of Transaction" fld="1" subtotal="count" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotHierarchies count="20">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Number of Transaction"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Transactions]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5349C62B-9039-4F57-A967-AA58C8FAE122}" name="PivotTable3" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Hour">
   <location ref="I5:J21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -5262,7 +5926,7 @@
     <dataField name="Number of Transaction" fld="1" subtotal="count" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5319,381 +5983,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CFEDE68C-40A5-44DF-B5B8-34625EDEC00C}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Day of Week">
-  <location ref="F5:G13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Number of Transaction" fld="1" subtotal="count" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="20">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Number of Transaction"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="14"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Transactions]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04900307-3CF3-4DB7-A52F-8A9C99C8FFAC}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Month">
-  <location ref="C5:D12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Revenue" fld="1" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="9">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="5">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="9" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="20">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Revenue"/>
-    <pivotHierarchy dragToData="1" caption="Revenue"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Transactions]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16E8F49F-17D8-4F22-A65E-70481D26D53A}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Category">
-  <location ref="A15:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Number of Transaction" fld="1" subtotal="count" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotHierarchies count="20">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Number of Transaction"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="10"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Transactions]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E5BA7C9-13CF-46B0-A58B-699F829C5DE8}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Type">
-  <location ref="B25:D41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E5BA7C9-13CF-46B0-A58B-699F829C5DE8}" name="PivotTable5" cacheId="146" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Type">
+  <location ref="B34:D50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="15">
@@ -5833,12 +6125,12 @@
     </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
+              <x v="1"/>
             </reference>
           </references>
         </pivotArea>
@@ -5855,12 +6147,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
+              <x v="0"/>
             </reference>
           </references>
         </pivotArea>
@@ -6566,10 +6858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A882F51-D3EA-4564-91B5-F53D71421675}">
-  <dimension ref="B9:U41"/>
+  <dimension ref="B9:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6586,195 +6878,198 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C34" t="s">
         <v>16</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D34" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="8">
-        <v>17183</v>
-      </c>
-      <c r="D26" s="7">
-        <v>77081.950000000012</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="8">
-        <v>16912</v>
-      </c>
-      <c r="D27" s="7">
-        <v>70034.600000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="8">
-        <v>16403</v>
-      </c>
-      <c r="D28" s="7">
-        <v>91406.2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="8">
-        <v>11468</v>
-      </c>
-      <c r="D29" s="7">
-        <v>72416</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8">
-        <v>11350</v>
-      </c>
-      <c r="D30" s="7">
-        <v>47932</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="8">
-        <v>11245</v>
-      </c>
-      <c r="D31" s="7">
-        <v>47539.5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="8">
-        <v>10173</v>
-      </c>
-      <c r="D32" s="7">
-        <v>36866.119999999886</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="8">
-        <v>8489</v>
-      </c>
-      <c r="D33" s="7">
-        <v>37746.5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="8">
-        <v>8477</v>
-      </c>
-      <c r="D34" s="7">
-        <v>31984</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C35" s="8">
-        <v>8135</v>
+        <v>17183</v>
       </c>
       <c r="D35" s="7">
-        <v>38781.150000000009</v>
+        <v>77081.950000000012</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="8">
-        <v>6912</v>
+        <v>16912</v>
       </c>
       <c r="D36" s="7">
-        <v>25655.99</v>
+        <v>70034.600000000006</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="8">
-        <v>5711</v>
+        <v>16403</v>
       </c>
       <c r="D37" s="7">
-        <v>19793.530000000057</v>
+        <v>91406.2</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C38" s="8">
-        <v>5671</v>
+        <v>11468</v>
       </c>
       <c r="D38" s="7">
-        <v>23852.5</v>
+        <v>72416</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C39" s="8">
-        <v>4979</v>
+        <v>11350</v>
       </c>
       <c r="D39" s="7">
-        <v>6084.7999999999984</v>
+        <v>47932</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C40" s="8">
-        <v>1811</v>
+        <v>11245</v>
       </c>
       <c r="D40" s="7">
-        <v>2323.9999999999986</v>
+        <v>47539.5</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="8">
+        <v>10173</v>
+      </c>
+      <c r="D41" s="7">
+        <v>36866.119999999886</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="8">
+        <v>8489</v>
+      </c>
+      <c r="D42" s="7">
+        <v>37746.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="8">
+        <v>8477</v>
+      </c>
+      <c r="D43" s="7">
+        <v>31984</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="8">
+        <v>8135</v>
+      </c>
+      <c r="D44" s="7">
+        <v>38781.150000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="8">
+        <v>6912</v>
+      </c>
+      <c r="D45" s="7">
+        <v>25655.99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="8">
+        <v>5711</v>
+      </c>
+      <c r="D46" s="7">
+        <v>19793.530000000057</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="8">
+        <v>5671</v>
+      </c>
+      <c r="D47" s="7">
+        <v>23852.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="8">
+        <v>4979</v>
+      </c>
+      <c r="D48" s="7">
+        <v>6084.7999999999984</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="8">
+        <v>1811</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2323.9999999999986</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C50" s="8">
         <v>144919</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D50" s="3">
         <v>629498.84000000008</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="D26:D41">
+  <protectedRanges>
+    <protectedRange sqref="I2:Q8" name="Range1"/>
+  </protectedRanges>
+  <conditionalFormatting pivot="1" sqref="D35:D50">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -6788,7 +7083,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C26:C41">
+  <conditionalFormatting pivot="1" sqref="C35:C50">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -6802,7 +7097,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C26:C41">
+  <conditionalFormatting pivot="1" sqref="C35:C50">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -6830,7 +7125,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D26:D41</xm:sqref>
+          <xm:sqref>D35:D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
           <x14:cfRule type="dataBar" id="{C1259801-59F5-4909-A903-8105269489CE}">
@@ -6841,7 +7136,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C26:C41</xm:sqref>
+          <xm:sqref>C35:C50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
           <x14:cfRule type="dataBar" id="{EB6DAF0C-F3B7-4BAF-9A6B-B74639E4A56A}">
@@ -6852,7 +7147,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C26:C41</xm:sqref>
+          <xm:sqref>C35:C50</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
